--- a/bank/hasil_konversi/bni_output.xlsx
+++ b/bank/hasil_konversi/bni_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>330025845</v>
+        <v>148943002</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -498,7 +498,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-Sep-2024</t>
+          <t>04-Jun-2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>050 Tanpa Kategori</t>
+          <t>050   Tanpa Kategori</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -520,22 +520,22 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>236327692</v>
+        <v>114574866</v>
       </c>
       <c r="G3" t="n">
-        <v>566353537</v>
+        <v>263517868</v>
       </c>
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>13-Sep-2024</t>
+          <t>30-Jun-2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RTGS KE NI KETUT</t>
+          <t>JASA GIROIBUNGA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,25 +549,25 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>150000000</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>183543</v>
       </c>
       <c r="G4" t="n">
-        <v>416353537</v>
+        <v>263701411</v>
       </c>
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13-Sep-2024</t>
+          <t>30-Jun-2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RTGS KE NI KETUT</t>
+          <t>PPH</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,25 +581,25 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25000</v>
+        <v>36709</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>416328537</v>
+        <v>263664702</v>
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30-Sep-2024</t>
+          <t>30-Jun-2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JASA GIROIBUNGA</t>
+          <t>BY ADMINISTRASI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,25 +613,25 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="F6" t="n">
-        <v>354932</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>416683469</v>
+        <v>263652702</v>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30-Sep-2024</t>
+          <t>30-Jun-2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PPH</t>
+          <t>BIAYA ADM KARTU</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,95 +645,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>70987</v>
+        <v>10000</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>416612482</v>
+        <v>263642702</v>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>30-Sep-2024</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>BY ADMINISTRASI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Tanpa Kategori</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>416600482</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>30-Sep-2024</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>BIAYA ADM KARTU</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Tanpa Kategori</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>416590482</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>416590482</v>
-      </c>
-      <c r="H10" t="inlineStr">
+        <v>263642702</v>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>SALDO AKHIR</t>
         </is>

--- a/bank/hasil_konversi/bni_output.xlsx
+++ b/bank/hasil_konversi/bni_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>148943002</v>
+        <v>496264489</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -498,17 +498,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-Jun-2024</t>
+          <t>01-Jan-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KREDIT LAIN-LAIN</t>
+          <t>BY ADMINISTRASI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>050   Tanpa Kategori</t>
+          <t>Tanpa Kategori</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -517,57 +517,49 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F3" t="n">
-        <v>114574866</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263517868</v>
+        <v>496254489</v>
       </c>
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30-Jun-2024</t>
+          <t>02-Jan-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JASA GIROIBUNGA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Tanpa Kategori</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>TRANSFER KE SIMSEM  Tanpa Kategori</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>20138</v>
       </c>
       <c r="F4" t="n">
-        <v>183543</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>263701411</v>
+        <v>496234351</v>
       </c>
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30-Jun-2024</t>
+          <t>03-Jan-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PPH</t>
+          <t>KREDIT LAIN-LAIN 050</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,25 +573,25 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>36709</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>157751823</v>
       </c>
       <c r="G5" t="n">
-        <v>263664702</v>
+        <v>653986174</v>
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30-Jun-2024</t>
+          <t>10-Jan-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BY ADMINISTRASI</t>
+          <t>RTGS KE NI KETUT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,63 +605,191 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12000</v>
+        <v>150000000</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>263652702</v>
+        <v>503986174</v>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30-Jun-2024</t>
+          <t>10-Jan-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>RTGS KE NI KETUT</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Tanpa Kategori</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>25000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>503961174</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>31-Jan-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>JASA GIROIBUNGA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Tanpa Kategori</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>431953</v>
+      </c>
+      <c r="G8" t="n">
+        <v>504393127</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>31-Jan-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PPH</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Tanpa Kategori</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>86391</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>504306736</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>31-Jan-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BY ADMINISTRASI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Tanpa Kategori</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>504294736</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>31-Jan-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>BIAYA ADM KARTU</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Tanpa Kategori</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="E11" t="n">
         <v>10000</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>263642702</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>263642702</v>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>504284736</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>504284736</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>SALDO AKHIR</t>
         </is>
